--- a/excel_reports/Carie_Wright.xlsx
+++ b/excel_reports/Carie_Wright.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6307" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6310" uniqueCount="1520">
   <si>
     <t xml:space="preserve">
 Note: These are not all chargebacks. Some likely are, some likely aren't. We DO NOT add up your sales and then subtract the cancelations listed below.  Instead, we calculate your commission report based upon "Net New" Active clients.  This sheet is a reference only so you can see a list of all policies that were updated to a "canceled" status during the last month.
@@ -4495,10 +4495,13 @@
     <t>Current Month Active</t>
   </si>
   <si>
-    <t>Lifetime Cancels (12+ Month Duration)</t>
-  </si>
-  <si>
-    <t>(These plans are added back into Current Month Total Active)</t>
+    <t>Past Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>(Any new long-term cancels are added back into Current Month Total Active)</t>
   </si>
   <si>
     <t>Net New Active</t>
@@ -4540,13 +4543,16 @@
     <t>Ancillary Plans</t>
   </si>
   <si>
-    <t>Previous Active DVH Plans:</t>
+    <t>Past Active DVH Plans:</t>
   </si>
   <si>
     <t>Current Active DVH Plans:</t>
   </si>
   <si>
-    <t>DVH Lifetime Cancels (12+ Month Duration)</t>
+    <t>Previous DVH Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current DVH Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New DVH Plans:</t>
@@ -4561,7 +4567,10 @@
     <t>Current Active Copay Plans:</t>
   </si>
   <si>
-    <t>Copay Lifetime Cancels (12+ Month Duration)</t>
+    <t>Past Copay Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Copay Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New Copay Plans:</t>
@@ -4971,7 +4980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4990,40 +4999,44 @@
       <c r="A2" s="2" t="s">
         <v>1489</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1490</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>284</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>1491</v>
       </c>
       <c r="B4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>1493</v>
       </c>
-      <c r="B5" s="4">
-        <f>B3+B4-B2</f>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B6" s="4">
+        <f>-B2+B3-B4+B5</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5031,62 +5044,70 @@
         <v>1495</v>
       </c>
       <c r="B7" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>1497</v>
-      </c>
-      <c r="B8" s="4">
-        <f>SUM(B5:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUM(B6:B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1499</v>
       </c>
-      <c r="B9" s="5">
-        <f>MAX(0, B8*150)</f>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B10" s="5">
+        <f>MAX(0, B9*150)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>1500</v>
-      </c>
-    </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="B12" s="2">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -5095,12 +5116,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B20">
         <v>44</v>
@@ -5108,7 +5129,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B21">
         <v>44</v>
@@ -5116,33 +5137,41 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B23">
-        <f>-B20+B21+B22</f>
+        <v>1510</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B24">
+        <f>-B20+B21-B22+B23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B24" s="5">
-        <f>B23*50</f>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B24*50</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -5150,7 +5179,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -5158,7 +5187,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -5166,19 +5195,27 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B29">
-        <f>-B26+B27+B28</f>
+        <v>1516</v>
+      </c>
+      <c r="B29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>1515</v>
-      </c>
-      <c r="B30" s="5">
-        <f>B29*100</f>
+      <c r="A30" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B30">
+        <f>-B26+B27-B28+B29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B31" s="5">
+        <f>B30*100</f>
         <v>0</v>
       </c>
     </row>
@@ -5347,7 +5384,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="9" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="9" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="9" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="9" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -23867,7 +23904,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="9" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="9" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="9" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="9" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -25993,7 +26030,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="9" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="9" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="9" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="9" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
